--- a/data/Pubs_May20_to_Sept21.xlsx
+++ b/data/Pubs_May20_to_Sept21.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emmadunne/Projects/Myanmar amber/Myanmar_amber/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6698B762-D01E-8641-8F41-62CD4C3A8B99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{368F3936-8D13-D146-BE82-1BB6DF6771F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-17220" yWindow="-28300" windowWidth="25040" windowHeight="27320" xr2:uid="{9A4AE936-6A81-F541-AF6C-4DF45EB0BB27}"/>
   </bookViews>
@@ -1756,8 +1756,16 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -1785,8 +1793,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2104,7 +2113,7 @@
   <dimension ref="A1:I175"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2114,34 +2123,36 @@
     <col min="4" max="4" width="16.33203125" customWidth="1"/>
     <col min="5" max="5" width="16.1640625" customWidth="1"/>
     <col min="6" max="6" width="16.33203125" customWidth="1"/>
+    <col min="7" max="7" width="12.83203125" customWidth="1"/>
+    <col min="8" max="8" width="17.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
     </row>
